--- a/outputs-HGR-r202/g__CAG-115.xlsx
+++ b/outputs-HGR-r202/g__CAG-115.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,23 +511,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11540.fa</t>
+          <t>even_MAG-GUT11693.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01355162979596226</v>
+        <v>0.009826449973094122</v>
       </c>
       <c r="C3" t="n">
-        <v>1.969976771136843e-13</v>
+        <v>5.314481882465044e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03164041258866989</v>
+        <v>0.002347471369265899</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9548079576151708</v>
+        <v>0.9878260786571085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9548079576151708</v>
+        <v>0.9878260786571085</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -639,23 +639,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT336.fa</t>
+          <t>even_MAG-GUT45094.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08099422636601147</v>
+        <v>0.01284747195451716</v>
       </c>
       <c r="C7" t="n">
-        <v>1.954231360368315e-13</v>
+        <v>2.564935106397004e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0333950827041897</v>
+        <v>0.01053058217473947</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8856106909296034</v>
+        <v>0.9766219458704869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8856106909296034</v>
+        <v>0.9766219458704869</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,23 +671,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38589.fa</t>
+          <t>even_MAG-GUT74415.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006825831115069151</v>
+        <v>0.006335774379043858</v>
       </c>
       <c r="C8" t="n">
-        <v>3.42896453249438e-13</v>
+        <v>1.96139586484243e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006065058751205826</v>
+        <v>0.01520243775200294</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9871091101333821</v>
+        <v>0.978461787868757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9871091101333821</v>
+        <v>0.978461787868757</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60783.fa</t>
+          <t>even_MAG-GUT74526.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00147786968116158</v>
+        <v>0.02145586014783659</v>
       </c>
       <c r="C9" t="n">
-        <v>2.840110636844371e-13</v>
+        <v>3.634464090612465e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006064358288680144</v>
+        <v>0.04644693675251199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9924577720298743</v>
+        <v>0.9320972030992879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9924577720298743</v>
+        <v>0.9320972030992879</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66949.fa</t>
+          <t>even_MAG-GUT78566.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01729195203405964</v>
+        <v>0.002408781166965713</v>
       </c>
       <c r="C10" t="n">
-        <v>1.048640223330898e-13</v>
+        <v>2.956413867042572e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04771750592429655</v>
+        <v>0.002378935968298866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9349905420415389</v>
+        <v>0.9952122828644397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9349905420415389</v>
+        <v>0.9952122828644397</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74415.fa</t>
+          <t>even_MAG-GUT85378.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006335774379043858</v>
+        <v>0.00758570442606568</v>
       </c>
       <c r="C11" t="n">
-        <v>1.96139586484243e-13</v>
+        <v>4.404032968033068e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01520243775200294</v>
+        <v>0.003627047729921285</v>
       </c>
       <c r="E11" t="n">
-        <v>0.978461787868757</v>
+        <v>0.9887872478435726</v>
       </c>
       <c r="F11" t="n">
-        <v>0.978461787868757</v>
+        <v>0.9887872478435726</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -791,134 +791,6 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74526.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02145586014783659</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.634464090612465e-13</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.04644693675251199</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9320972030992879</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9320972030992879</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78566.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.002408781166965713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.956413867042572e-13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.002378935968298866</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9952122828644397</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9952122828644397</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85378.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.00758570442606568</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.404032968033068e-13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.003627047729921285</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9887872478435726</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9887872478435726</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85582.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.006621833014702523</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.779342942938233e-13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0363996218958948</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9569785450892248</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9569785450892248</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>s__CAG-115 sp003531585</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-115.xlsx
+++ b/outputs-HGR-r202/g__CAG-115.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>s__CAG-115 sp003531585</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1033,6 +1138,11 @@
         <v>0.9569785450892248</v>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>s__CAG-115 sp003531585</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>s__CAG-115 sp003531585</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-115.xlsx
+++ b/outputs-HGR-r202/g__CAG-115.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,23 +575,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12269.fa</t>
+          <t>even_MAG-GUT13790.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004196448964210398</v>
+        <v>0.005822806645953541</v>
       </c>
       <c r="C5" t="n">
-        <v>1.018368668390138e-13</v>
+        <v>3.247801659271042e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03021353369382959</v>
+        <v>0.003351846485587644</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9655900173418582</v>
+        <v>0.9908253468681341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9655900173418582</v>
+        <v>0.9908253468681341</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12678.fa</t>
+          <t>even_MAG-GUT15989.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002036765908232917</v>
+        <v>0.005403053213969095</v>
       </c>
       <c r="C6" t="n">
-        <v>3.063783058705652e-13</v>
+        <v>8.115768978319721e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00231668990965629</v>
+        <v>0.003975482533935873</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956465441818044</v>
+        <v>0.9906214642512835</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9956465441818044</v>
+        <v>0.9906214642512835</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,23 +639,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13790.fa</t>
+          <t>even_MAG-GUT32779.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005822806645953541</v>
+        <v>0.03271914541528812</v>
       </c>
       <c r="C7" t="n">
-        <v>3.247801659271042e-13</v>
+        <v>2.137731554437702e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003351846485587644</v>
+        <v>0.006039116473382748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9908253468681341</v>
+        <v>0.9612417381111155</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9908253468681341</v>
+        <v>0.9612417381111155</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,23 +671,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15989.fa</t>
+          <t>even_MAG-GUT336.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005403053213969095</v>
+        <v>0.08099422636601147</v>
       </c>
       <c r="C8" t="n">
-        <v>8.115768978319721e-13</v>
+        <v>1.954231360368315e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003975482533935873</v>
+        <v>0.0333950827041897</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9906214642512835</v>
+        <v>0.8856106909296034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9906214642512835</v>
+        <v>0.8856106909296034</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32779.fa</t>
+          <t>even_MAG-GUT38589.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03271914541528812</v>
+        <v>0.006825831115069151</v>
       </c>
       <c r="C9" t="n">
-        <v>2.137731554437702e-13</v>
+        <v>3.42896453249438e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006039116473382748</v>
+        <v>0.006065058751205826</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9612417381111155</v>
+        <v>0.9871091101333821</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9612417381111155</v>
+        <v>0.9871091101333821</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT336.fa</t>
+          <t>even_MAG-GUT45094.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08099422636601147</v>
+        <v>0.01284747195451716</v>
       </c>
       <c r="C10" t="n">
-        <v>1.954231360368315e-13</v>
+        <v>2.564935106397004e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0333950827041897</v>
+        <v>0.01053058217473947</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8856106909296034</v>
+        <v>0.9766219458704869</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8856106909296034</v>
+        <v>0.9766219458704869</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38589.fa</t>
+          <t>even_MAG-GUT52319.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006825831115069151</v>
+        <v>0.008460504522791406</v>
       </c>
       <c r="C11" t="n">
-        <v>3.42896453249438e-13</v>
+        <v>1.367328808510984e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006065058751205826</v>
+        <v>0.02419838334739265</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9871091101333821</v>
+        <v>0.9673411121296793</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9871091101333821</v>
+        <v>0.9673411121296793</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45094.fa</t>
+          <t>even_MAG-GUT60783.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01284747195451716</v>
+        <v>0.00147786968116158</v>
       </c>
       <c r="C12" t="n">
-        <v>2.564935106397004e-13</v>
+        <v>2.840110636844371e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01053058217473947</v>
+        <v>0.006064358288680144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9766219458704869</v>
+        <v>0.9924577720298743</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9766219458704869</v>
+        <v>0.9924577720298743</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52319.fa</t>
+          <t>even_MAG-GUT74415.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008460504522791406</v>
+        <v>0.006335774379043858</v>
       </c>
       <c r="C13" t="n">
-        <v>1.367328808510984e-13</v>
+        <v>1.96139586484243e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02419838334739265</v>
+        <v>0.01520243775200294</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9673411121296793</v>
+        <v>0.978461787868757</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9673411121296793</v>
+        <v>0.978461787868757</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60783.fa</t>
+          <t>even_MAG-GUT74526.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00147786968116158</v>
+        <v>0.02145586014783659</v>
       </c>
       <c r="C14" t="n">
-        <v>2.840110636844371e-13</v>
+        <v>3.634464090612465e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006064358288680144</v>
+        <v>0.04644693675251199</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9924577720298743</v>
+        <v>0.9320972030992879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9924577720298743</v>
+        <v>0.9320972030992879</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66949.fa</t>
+          <t>even_MAG-GUT78566.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01729195203405964</v>
+        <v>0.002408781166965713</v>
       </c>
       <c r="C15" t="n">
-        <v>1.048640223330898e-13</v>
+        <v>2.956413867042572e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04771750592429655</v>
+        <v>0.002378935968298866</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9349905420415389</v>
+        <v>0.9952122828644397</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9349905420415389</v>
+        <v>0.9952122828644397</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6929.fa</t>
+          <t>even_MAG-GUT85378.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001749875913149774</v>
+        <v>0.00758570442606568</v>
       </c>
       <c r="C16" t="n">
-        <v>3.630263761587407e-13</v>
+        <v>4.404032968033068e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002490584485220216</v>
+        <v>0.003627047729921285</v>
       </c>
       <c r="E16" t="n">
-        <v>0.995759539601267</v>
+        <v>0.9887872478435726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.995759539601267</v>
+        <v>0.9887872478435726</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74415.fa</t>
+          <t>even_MAG-GUT85491.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006335774379043858</v>
+        <v>0.03325438432596847</v>
       </c>
       <c r="C17" t="n">
-        <v>1.96139586484243e-13</v>
+        <v>1.139521629627143e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01520243775200294</v>
+        <v>0.004585676874016419</v>
       </c>
       <c r="E17" t="n">
-        <v>0.978461787868757</v>
+        <v>0.9621599387999011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.978461787868757</v>
+        <v>0.9621599387999011</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74526.fa</t>
+          <t>even_MAG-GUT85582.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02145586014783659</v>
+        <v>0.006621833014702523</v>
       </c>
       <c r="C18" t="n">
-        <v>3.634464090612465e-13</v>
+        <v>1.779342942938233e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04644693675251199</v>
+        <v>0.0363996218958948</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9320972030992879</v>
+        <v>0.9569785450892248</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9320972030992879</v>
+        <v>0.9569785450892248</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1015,134 +1015,6 @@
         </is>
       </c>
       <c r="H18" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78566.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002408781166965713</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.956413867042572e-13</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.002378935968298866</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9952122828644397</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9952122828644397</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85378.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.00758570442606568</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.404032968033068e-13</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.003627047729921285</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9887872478435726</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9887872478435726</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85491.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.03325438432596847</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.139521629627143e-13</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.004585676874016419</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9621599387999011</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9621599387999011</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85582.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.006621833014702523</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.779342942938233e-13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0363996218958948</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9569785450892248</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9569785450892248</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>s__CAG-115 sp003531585</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>s__CAG-115 sp003531585</t>
         </is>
